--- a/ftest/data/fm7/Worked_example_policy_calculation_5.xlsx
+++ b/ftest/data/fm7/Worked_example_policy_calculation_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ktest\ftest\data\fm7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{842AEEE8-C4ED-4C0B-A5CE-932119351EE5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B92B73A-0FBF-4EC5-9ECE-2209AF29740B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="18960" windowHeight="8652" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Introduction" sheetId="13" r:id="rId1"/>
     <sheet name="Policy Calculation" sheetId="11" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -467,8 +467,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -659,7 +659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -766,7 +766,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -777,6 +777,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -786,9 +789,6 @@
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1279,8 +1279,8 @@
   </sheetPr>
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="L58" sqref="C58:L58"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1500,20 +1500,20 @@
     <row r="35" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29"/>
       <c r="B35" s="30"/>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
-      <c r="I35" s="43" t="s">
+      <c r="I35" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
       <c r="M35" s="30"/>
       <c r="N35" s="31" t="s">
         <v>72</v>
@@ -1695,16 +1695,16 @@
       <c r="B42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
       <c r="M42" s="24"/>
       <c r="N42" s="38">
         <v>2500000</v>
@@ -1752,30 +1752,30 @@
         <v>40</v>
       </c>
       <c r="C45" s="12">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D45" s="12">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E45" s="12">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="F45" s="12">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="12">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J45" s="12">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="K45" s="12">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="L45" s="12">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="M45" s="24"/>
       <c r="N45" s="32"/>
@@ -1825,37 +1825,37 @@
       </c>
       <c r="C48" s="11">
         <f>C45*C38</f>
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="D48" s="11">
         <f t="shared" ref="D48:F48" si="0">D45*D38</f>
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>2500</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>400</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="11">
         <f>I45*I38</f>
-        <v>1700000</v>
+        <v>170000</v>
       </c>
       <c r="J48" s="11">
         <f t="shared" ref="J48:L48" si="1">J45*J38</f>
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="K48" s="11">
         <f t="shared" si="1"/>
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="L48" s="11">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="M48" s="24"/>
       <c r="N48" s="33"/>
@@ -1869,42 +1869,42 @@
       </c>
       <c r="C49" s="40">
         <f>MAX(C48-C40,0)</f>
-        <v>990000</v>
+        <v>90000</v>
       </c>
       <c r="D49" s="40">
         <f>MAX(D48-D40,0)</f>
-        <v>95000</v>
+        <v>5000</v>
       </c>
       <c r="E49" s="40">
         <f>MAX(E48-E40,0)</f>
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="F49" s="40">
         <f>MAX(F48-F40,0)</f>
-        <v>20000</v>
+        <v>400</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="40">
         <f>MAX(I48-I40,0)</f>
-        <v>1690000</v>
+        <v>160000</v>
       </c>
       <c r="J49" s="40">
         <f>MAX(J48-J40,0)</f>
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="K49" s="40">
         <f>MAX(K48-K40,0)</f>
-        <v>995000</v>
+        <v>45000</v>
       </c>
       <c r="L49" s="40">
         <f>MAX(L48-L40,0)</f>
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="M49" s="24"/>
       <c r="N49" s="33">
         <f>SUM(C49:L49)</f>
-        <v>3910000</v>
+        <v>301400</v>
       </c>
     </row>
     <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1927,7 +1927,7 @@
       <c r="M50" s="24"/>
       <c r="N50" s="33">
         <f>MAX(N49-N41,0)</f>
-        <v>3860000</v>
+        <v>251400</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1937,20 +1937,20 @@
       <c r="B51" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
       <c r="M51" s="24"/>
       <c r="N51" s="33">
         <f>MIN(N42,N50)</f>
-        <v>2500000</v>
+        <v>251400</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -1973,92 +1973,92 @@
       <c r="M52" s="35"/>
       <c r="N52" s="37">
         <f>N51</f>
-        <v>2500000</v>
+        <v>251400</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="45">
-        <f>$N$50*C48/SUM($C$48:$L$48)</f>
-        <v>977215.18987341772</v>
-      </c>
-      <c r="D55" s="45">
-        <f t="shared" ref="D55:F55" si="2">$N$50*D48/SUM($C$48:$L$48)</f>
-        <v>97721.518987341769</v>
-      </c>
-      <c r="E55" s="45">
+      <c r="C55" s="42">
+        <f>$N$52*C48/SUM($C$48:$L$48)</f>
+        <v>74621.549421193238</v>
+      </c>
+      <c r="D55" s="42">
+        <f t="shared" ref="D55:F55" si="2">$N$52*D48/SUM($C$48:$L$48)</f>
+        <v>7462.1549421193231</v>
+      </c>
+      <c r="E55" s="42">
         <f t="shared" si="2"/>
-        <v>48860.759493670885</v>
-      </c>
-      <c r="F55" s="45">
+        <v>1865.5387355298308</v>
+      </c>
+      <c r="F55" s="42">
         <f t="shared" si="2"/>
-        <v>19544.303797468354</v>
-      </c>
-      <c r="I55" s="45">
-        <f t="shared" ref="I55:L55" si="3">$N$50*I48/SUM($C$48:$L$48)</f>
-        <v>1661265.8227848101</v>
-      </c>
-      <c r="J55" s="45">
+        <v>298.48619768477295</v>
+      </c>
+      <c r="I55" s="42">
+        <f t="shared" ref="I55:L55" si="3">$N$52*I48/SUM($C$48:$L$48)</f>
+        <v>126856.63401602849</v>
+      </c>
+      <c r="J55" s="42">
         <f t="shared" si="3"/>
-        <v>29316.455696202531</v>
-      </c>
-      <c r="K55" s="45">
+        <v>2238.6464826357969</v>
+      </c>
+      <c r="K55" s="42">
         <f t="shared" si="3"/>
-        <v>977215.18987341772</v>
-      </c>
-      <c r="L55" s="45">
+        <v>37310.774710596619</v>
+      </c>
+      <c r="L55" s="42">
         <f t="shared" si="3"/>
-        <v>48860.759493670885</v>
+        <v>746.21549421193231</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="45">
-        <f>$N$50*C49/SUM($C$49:$L$49)</f>
-        <v>977340.15345268545</v>
-      </c>
-      <c r="D56" s="45">
-        <f t="shared" ref="D56:F56" si="4">$N$50*D49/SUM($C$49:$L$49)</f>
-        <v>93785.166240409206</v>
-      </c>
-      <c r="E56" s="45">
+      <c r="C56" s="42">
+        <f>$N$52*C49/SUM($C$49:$L$49)</f>
+        <v>75069.674850696741</v>
+      </c>
+      <c r="D56" s="42">
+        <f t="shared" ref="D56:F56" si="4">$N$52*D49/SUM($C$49:$L$49)</f>
+        <v>4170.537491705375</v>
+      </c>
+      <c r="E56" s="42">
         <f t="shared" si="4"/>
-        <v>44424.552429667521</v>
-      </c>
-      <c r="F56" s="45">
+        <v>0</v>
+      </c>
+      <c r="F56" s="42">
         <f t="shared" si="4"/>
-        <v>19744.245524296675</v>
-      </c>
-      <c r="I56" s="45">
-        <f>$N$50*I49/SUM($C$49:$L$49)</f>
-        <v>1668388.746803069</v>
-      </c>
-      <c r="J56" s="45">
-        <f t="shared" ref="J56:L56" si="5">$N$50*J49/SUM($C$49:$L$49)</f>
-        <v>24680.306905370842</v>
-      </c>
-      <c r="K56" s="45">
+        <v>333.64299933642997</v>
+      </c>
+      <c r="I56" s="42">
+        <f t="shared" ref="I56:L56" si="5">$N$52*I49/SUM($C$49:$L$49)</f>
+        <v>133457.199734572</v>
+      </c>
+      <c r="J56" s="42">
         <f t="shared" si="5"/>
-        <v>982276.21483375959</v>
-      </c>
-      <c r="L56" s="45">
+        <v>0</v>
+      </c>
+      <c r="K56" s="42">
         <f t="shared" si="5"/>
-        <v>49360.613810741685</v>
+        <v>37534.837425348371</v>
+      </c>
+      <c r="L56" s="42">
+        <f t="shared" si="5"/>
+        <v>834.10749834107503</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C58"/>
       <c r="D58"/>
       <c r="F58"/>
-      <c r="K58"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C60"/>
       <c r="D60"/>
+      <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C61"/>
